--- a/with_data.xlsx
+++ b/with_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://efrag-my.sharepoint.com/personal/andrea_baschiera_efrag_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://efrag-my.sharepoint.com/personal/andrea_baschiera_efrag_org/Documents/Desktop/Data Migration Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A190EE-F421-454E-8E6E-5E89C3DC8AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F6A190EE-F421-454E-8E6E-5E89C3DC8AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CAB3D8C-AD2A-4CF6-A74E-5E9D358CDCEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0BCF6193-606A-4F15-B39F-608DA7147DC2}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="number">Sheet1!$D$3</definedName>
+    <definedName name="number2">Sheet1!$D$5</definedName>
     <definedName name="stringa">Sheet1!$F$3:$F$6</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentManualCount="8"/>
@@ -423,14 +424,15 @@
   <dimension ref="D3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D3">
-        <v>56</v>
+        <f>45+54</f>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -442,6 +444,10 @@
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>number</f>
+        <v>99</v>
+      </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
